--- a/tasks/AI/RGR_AI/Data.xlsx
+++ b/tasks/AI/RGR_AI/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\4 семестер\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kepkp\PycharmProjects\Study\python_deepdive\tasks\AI\RGR_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18475F5-C40A-4565-91E4-7F2BAE5351B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D5A0D-DD80-42B5-B7A6-C7F334842F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8388" yWindow="264" windowWidth="15420" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -328,26 +328,38 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -378,19 +390,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
     <cellStyle name="Звичайний 2" xfId="1" xr:uid="{4AD78E77-D2AE-4658-823F-B08392F55478}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -693,7 +706,7 @@
   <dimension ref="A1:F265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K7"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,22 +722,22 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
@@ -741,7 +754,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -758,7 +771,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4">
@@ -775,7 +788,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -792,7 +805,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6">
@@ -809,7 +822,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -826,7 +839,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -843,7 +856,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -860,7 +873,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10">
@@ -877,7 +890,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11">
@@ -894,7 +907,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12">
@@ -911,7 +924,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13">
@@ -928,7 +941,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B14">
@@ -945,7 +958,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B15">
@@ -962,7 +975,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B16">
@@ -979,7 +992,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B17">
@@ -996,7 +1009,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B18">
@@ -1013,7 +1026,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B19">
@@ -1030,7 +1043,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B20">
@@ -1047,7 +1060,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B21">
@@ -1064,7 +1077,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B22">
@@ -1081,7 +1094,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B23">
@@ -1098,7 +1111,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24">
@@ -1115,7 +1128,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B25">
@@ -1132,7 +1145,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B26">
@@ -1149,7 +1162,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27">
@@ -1166,7 +1179,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B28">
@@ -1183,7 +1196,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B29">
@@ -1200,7 +1213,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B30">
@@ -1217,7 +1230,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B31">
@@ -1234,7 +1247,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B32">
@@ -1251,7 +1264,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B33">
@@ -1268,7 +1281,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B34">
@@ -1285,7 +1298,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B35">
@@ -1302,7 +1315,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B36">
@@ -1319,7 +1332,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B37">
@@ -1336,7 +1349,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B38">
@@ -1353,7 +1366,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B39">
@@ -1370,7 +1383,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B40">
@@ -1387,7 +1400,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B41">
@@ -1404,7 +1417,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B42">
@@ -1421,7 +1434,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B43">
@@ -1438,7 +1451,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B44">
@@ -1455,7 +1468,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B45">
@@ -1472,7 +1485,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B46">
@@ -1489,7 +1502,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B47">
@@ -1506,7 +1519,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B48">
@@ -1523,7 +1536,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B49">
@@ -1540,7 +1553,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B50">
@@ -1557,7 +1570,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B51">
@@ -1574,7 +1587,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B52">
@@ -1591,7 +1604,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B53">
@@ -1608,7 +1621,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B54">
@@ -1625,7 +1638,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B55">
@@ -1642,7 +1655,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B56">
@@ -1659,7 +1672,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B57">
@@ -1676,7 +1689,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B58">
@@ -1693,7 +1706,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B59">
@@ -1710,7 +1723,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B60">
@@ -1727,7 +1740,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B61">
@@ -1744,7 +1757,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B62">
@@ -1761,7 +1774,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B63">
@@ -1778,7 +1791,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B64">
@@ -1795,7 +1808,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B65">
@@ -1812,7 +1825,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B66">
@@ -1829,7 +1842,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B67">
@@ -1846,7 +1859,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B68">
@@ -1863,7 +1876,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B69">
@@ -1880,7 +1893,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B70">
@@ -1897,7 +1910,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B71">
@@ -1914,7 +1927,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B72">
@@ -1931,7 +1944,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B73">
@@ -1948,7 +1961,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B74">
@@ -1965,7 +1978,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B75">
@@ -1982,7 +1995,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B76">
@@ -1999,7 +2012,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B77">
@@ -2016,7 +2029,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B78">
@@ -2033,7 +2046,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B79">
@@ -2050,7 +2063,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B80">
@@ -2067,7 +2080,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B81">
@@ -2084,7 +2097,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B82">
@@ -2101,7 +2114,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B83">
@@ -2118,7 +2131,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B84">
@@ -2135,7 +2148,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B85">
@@ -2152,7 +2165,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B86">
@@ -2169,7 +2182,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B87">
@@ -2186,7 +2199,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B88">
@@ -2203,7 +2216,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B89">
@@ -2220,7 +2233,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B90">
@@ -2237,7 +2250,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B91">
@@ -2254,7 +2267,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B92">
@@ -2271,7 +2284,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B93">
@@ -2288,7 +2301,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B94">
@@ -2305,7 +2318,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B95">
@@ -2322,7 +2335,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B96">
@@ -2339,7 +2352,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B97">
@@ -2356,7 +2369,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B98">
@@ -2373,7 +2386,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B99">
@@ -2390,7 +2403,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B100">
@@ -2407,7 +2420,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B101">
@@ -2424,7 +2437,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B102">
@@ -2441,7 +2454,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B103">
@@ -2458,7 +2471,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B104">
@@ -2475,7 +2488,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B105">
@@ -2492,7 +2505,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B106">
@@ -2509,7 +2522,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B107">
@@ -2526,7 +2539,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B108">
@@ -2543,7 +2556,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B109">
@@ -2560,7 +2573,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B110">
@@ -2577,7 +2590,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B111">
@@ -2594,7 +2607,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B112">
@@ -2611,7 +2624,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B113">
@@ -2628,7 +2641,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B114">
@@ -2645,7 +2658,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B115">
@@ -2662,7 +2675,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B116">
@@ -2679,7 +2692,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B117">
@@ -2696,7 +2709,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B118">
@@ -2713,7 +2726,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B119">
@@ -2730,7 +2743,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B120">
@@ -2747,7 +2760,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B121">
@@ -2764,7 +2777,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B122">
@@ -2781,7 +2794,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B123">
@@ -2798,7 +2811,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B124">
@@ -2815,7 +2828,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B125">
@@ -2832,7 +2845,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B126">
@@ -2849,7 +2862,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B127">
@@ -2866,7 +2879,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B128">
@@ -2883,7 +2896,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B129">
@@ -2900,7 +2913,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B130">
@@ -2917,7 +2930,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B131">
@@ -2934,7 +2947,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B132">
@@ -2951,7 +2964,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B133">
@@ -2968,7 +2981,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B134">
@@ -2985,7 +2998,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B135">
@@ -3002,7 +3015,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B136">
@@ -3019,7 +3032,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B137">
@@ -3036,7 +3049,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B138">
@@ -3053,7 +3066,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B139">
@@ -3070,7 +3083,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B140">
@@ -3087,7 +3100,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B141">
@@ -3104,7 +3117,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B142">
@@ -3121,7 +3134,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B143">
@@ -3138,7 +3151,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B144">
@@ -3155,7 +3168,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B145">
@@ -3172,7 +3185,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B146">
@@ -3189,7 +3202,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B147">
@@ -3206,7 +3219,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B148">
@@ -3223,7 +3236,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B149">
@@ -3240,7 +3253,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B150">
@@ -3257,7 +3270,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B151">
@@ -3274,7 +3287,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B152">
@@ -3291,7 +3304,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B153">
@@ -3308,7 +3321,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B154">
@@ -3325,7 +3338,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B155">
@@ -3342,7 +3355,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B156">
@@ -3359,7 +3372,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B157">
@@ -3376,7 +3389,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B158">
@@ -3393,7 +3406,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B159">
@@ -3410,7 +3423,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B160">
@@ -3427,7 +3440,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B161">
@@ -3444,7 +3457,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B162">
@@ -3461,7 +3474,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B163">
@@ -3478,7 +3491,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B164">
@@ -3495,7 +3508,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B165">
@@ -3512,7 +3525,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B166">
@@ -3529,7 +3542,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B167">
@@ -3546,7 +3559,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B168">
@@ -3563,7 +3576,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B169">
@@ -3580,7 +3593,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B170">
@@ -3597,7 +3610,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B171">
@@ -3614,7 +3627,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B172">
@@ -3631,7 +3644,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B173">
@@ -3648,7 +3661,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B174">
@@ -3665,7 +3678,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B175">
@@ -3682,7 +3695,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B176">
@@ -3699,7 +3712,7 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B177">
@@ -3716,7 +3729,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B178">
@@ -3733,7 +3746,7 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B179">
@@ -3750,7 +3763,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B180">
@@ -3767,7 +3780,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B181">
@@ -3784,7 +3797,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B182">
@@ -3801,7 +3814,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B183">
@@ -3818,7 +3831,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B184">
@@ -3835,7 +3848,7 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B185">
@@ -3852,7 +3865,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B186">
@@ -3869,7 +3882,7 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B187">
@@ -3886,7 +3899,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B188">
@@ -3903,7 +3916,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B189">
@@ -3920,7 +3933,7 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B190">
@@ -3937,7 +3950,7 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B191">
@@ -3954,7 +3967,7 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B192">
@@ -3971,7 +3984,7 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B193">
@@ -3988,7 +4001,7 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B194">
@@ -4005,7 +4018,7 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B195">
@@ -4022,7 +4035,7 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B196">
@@ -4039,7 +4052,7 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B197">
@@ -4056,7 +4069,7 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B198">
@@ -4073,7 +4086,7 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B199">
@@ -4090,7 +4103,7 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B200">
@@ -4107,7 +4120,7 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B201">
@@ -4124,7 +4137,7 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B202">
@@ -4141,7 +4154,7 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B203">
@@ -4158,7 +4171,7 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B204">
@@ -4175,7 +4188,7 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B205">
@@ -4192,7 +4205,7 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B206">
@@ -4209,7 +4222,7 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B207">
@@ -4226,7 +4239,7 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B208">
@@ -4243,7 +4256,7 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B209">
@@ -4260,7 +4273,7 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B210">
@@ -4277,7 +4290,7 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B211">
@@ -4294,7 +4307,7 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B212">
@@ -4311,7 +4324,7 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B213">
@@ -4328,7 +4341,7 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B214">
@@ -4345,7 +4358,7 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B215">
@@ -4362,7 +4375,7 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B216">
@@ -4379,7 +4392,7 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B217">
@@ -4396,7 +4409,7 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B218">
@@ -4413,7 +4426,7 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B219">
@@ -4430,7 +4443,7 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B220">
@@ -4447,7 +4460,7 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B221">
@@ -4464,7 +4477,7 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B222">
@@ -4481,7 +4494,7 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B223">
@@ -4498,7 +4511,7 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B224">
@@ -4515,7 +4528,7 @@
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B225">
@@ -4532,7 +4545,7 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B226">
@@ -4549,7 +4562,7 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B227">
@@ -4566,7 +4579,7 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B228">
@@ -4583,7 +4596,7 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B229">
@@ -4600,7 +4613,7 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B230">
@@ -4617,7 +4630,7 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B231">
@@ -4634,7 +4647,7 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B232">
@@ -4651,7 +4664,7 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B233">
@@ -4668,7 +4681,7 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B234">
@@ -4685,7 +4698,7 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B235">
@@ -4702,7 +4715,7 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B236">
@@ -4719,7 +4732,7 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B237">
@@ -4736,7 +4749,7 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B238">
@@ -4753,7 +4766,7 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B239">
@@ -4770,7 +4783,7 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B240">
@@ -4787,7 +4800,7 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B241">
@@ -4804,7 +4817,7 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B242">
@@ -4821,7 +4834,7 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B243">
@@ -4838,7 +4851,7 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B244">
@@ -4855,7 +4868,7 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B245">
@@ -4872,7 +4885,7 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B246">
@@ -4889,7 +4902,7 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B247">
@@ -4906,7 +4919,7 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B248">
@@ -4923,7 +4936,7 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B249">
@@ -4940,7 +4953,7 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B250">
@@ -4957,7 +4970,7 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B251">
@@ -4974,7 +4987,7 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B252">
@@ -4991,7 +5004,7 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B253">
@@ -5008,7 +5021,7 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B254">
@@ -5025,7 +5038,7 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B255">
@@ -5042,7 +5055,7 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B256">
@@ -5059,7 +5072,7 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B257">
@@ -5076,7 +5089,7 @@
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B258">
@@ -5093,7 +5106,7 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B259">
@@ -5110,7 +5123,7 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B260">
@@ -5127,7 +5140,7 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B261">
@@ -5144,7 +5157,7 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B262">
@@ -5161,7 +5174,7 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B263">
@@ -5178,7 +5191,7 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B264">
@@ -5195,7 +5208,7 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B265">
